--- a/ExcelUtils/Data_Source.xlsx
+++ b/ExcelUtils/Data_Source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9840" tabRatio="987"/>
+    <workbookView windowWidth="8580" windowHeight="8220" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="EnvironmentDetails" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="TestCases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:I2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Execution</t>
   </si>
@@ -64,10 +65,13 @@
     <t>vaazid.khan@effiasoft.com</t>
   </si>
   <si>
+    <t>mytech</t>
+  </si>
+  <si>
     <t>1PC6-ITXI</t>
   </si>
   <si>
-    <t>JustBilling.msi</t>
+    <t>JustBilling</t>
   </si>
   <si>
     <t>Vertical</t>
@@ -1338,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1395,11 +1399,17 @@
       <c r="E2" s="12">
         <v>123456</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10166370</v>
+      </c>
       <c r="H2" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1436,87 +1446,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7">
         <v>12345678</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7">
         <v>123456</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="26.4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9">
         <v>123456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="12">
         <v>678901</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
